--- a/analyze/outputStudMain.xlsx
+++ b/analyze/outputStudMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simak\Documents\GitHub\Diploma\analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C536FDA-80B5-4208-846E-A6D0DAF80062}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB40BB31-A466-4863-A249-ADDEE291186A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="2340" windowWidth="18000" windowHeight="9315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,27 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">чел СПО </t>
-  </si>
-  <si>
-    <t>принято СПО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">выпущено СПО </t>
-  </si>
-  <si>
-    <t>чел высш</t>
-  </si>
-  <si>
-    <t>принято чел высш</t>
-  </si>
-  <si>
-    <t>выпущено чел высш</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>обучающиеся</t>
+  </si>
+  <si>
+    <t>год</t>
+  </si>
+  <si>
+    <t xml:space="preserve">челСПО </t>
+  </si>
+  <si>
+    <t>принятоСПО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выпущеноСПО </t>
+  </si>
+  <si>
+    <t>челВысш</t>
+  </si>
+  <si>
+    <t>принятоЧелВысш</t>
+  </si>
+  <si>
+    <t>выпущеноЧелВысш</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,6 +400,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1">
         <v>2014</v>
       </c>
@@ -415,7 +421,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>245057</v>
@@ -435,7 +441,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>31659</v>
@@ -455,7 +461,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>10384</v>
@@ -475,7 +481,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>6950</v>
@@ -495,7 +501,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>69252</v>
@@ -515,7 +521,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>14520</v>
@@ -535,7 +541,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>14836</v>
